--- a/ARIMA.xlsx
+++ b/ARIMA.xlsx
@@ -22,31 +22,31 @@
     <t>InvoiceDate</t>
   </si>
   <si>
-    <t>2010-01-12</t>
-  </si>
-  <si>
-    <t>2010-02-12</t>
-  </si>
-  <si>
-    <t>2010-03-12</t>
-  </si>
-  <si>
-    <t>2010-05-12</t>
-  </si>
-  <si>
-    <t>2010-06-12</t>
-  </si>
-  <si>
-    <t>2010-07-12</t>
-  </si>
-  <si>
-    <t>2010-08-12</t>
-  </si>
-  <si>
-    <t>2010-09-12</t>
-  </si>
-  <si>
-    <t>2010-10-12</t>
+    <t>2010-12-01</t>
+  </si>
+  <si>
+    <t>2010-12-02</t>
+  </si>
+  <si>
+    <t>2010-12-03</t>
+  </si>
+  <si>
+    <t>2010-12-05</t>
+  </si>
+  <si>
+    <t>2010-12-06</t>
+  </si>
+  <si>
+    <t>2010-12-07</t>
+  </si>
+  <si>
+    <t>2010-12-08</t>
+  </si>
+  <si>
+    <t>2010-12-09</t>
+  </si>
+  <si>
+    <t>2010-12-10</t>
   </si>
   <si>
     <t>2010-12-12</t>
@@ -82,12 +82,6 @@
     <t>2010-12-23</t>
   </si>
   <si>
-    <t>2011-01-02</t>
-  </si>
-  <si>
-    <t>2011-01-03</t>
-  </si>
-  <si>
     <t>2011-01-04</t>
   </si>
   <si>
@@ -100,12 +94,12 @@
     <t>2011-01-07</t>
   </si>
   <si>
-    <t>2011-01-08</t>
-  </si>
-  <si>
     <t>2011-01-09</t>
   </si>
   <si>
+    <t>2011-01-10</t>
+  </si>
+  <si>
     <t>2011-01-11</t>
   </si>
   <si>
@@ -160,15 +154,24 @@
     <t>2011-01-31</t>
   </si>
   <si>
+    <t>2011-02-01</t>
+  </si>
+  <si>
     <t>2011-02-02</t>
   </si>
   <si>
     <t>2011-02-03</t>
   </si>
   <si>
+    <t>2011-02-04</t>
+  </si>
+  <si>
     <t>2011-02-06</t>
   </si>
   <si>
+    <t>2011-02-07</t>
+  </si>
+  <si>
     <t>2011-02-08</t>
   </si>
   <si>
@@ -181,9 +184,6 @@
     <t>2011-02-11</t>
   </si>
   <si>
-    <t>2011-02-12</t>
-  </si>
-  <si>
     <t>2011-02-13</t>
   </si>
   <si>
@@ -226,6 +226,9 @@
     <t>2011-02-28</t>
   </si>
   <si>
+    <t>2011-03-01</t>
+  </si>
+  <si>
     <t>2011-03-02</t>
   </si>
   <si>
@@ -235,9 +238,6 @@
     <t>2011-03-04</t>
   </si>
   <si>
-    <t>2011-03-05</t>
-  </si>
-  <si>
     <t>2011-03-06</t>
   </si>
   <si>
@@ -247,6 +247,9 @@
     <t>2011-03-08</t>
   </si>
   <si>
+    <t>2011-03-09</t>
+  </si>
+  <si>
     <t>2011-03-10</t>
   </si>
   <si>
@@ -307,9 +310,6 @@
     <t>2011-04-01</t>
   </si>
   <si>
-    <t>2011-04-02</t>
-  </si>
-  <si>
     <t>2011-04-03</t>
   </si>
   <si>
@@ -319,15 +319,15 @@
     <t>2011-04-05</t>
   </si>
   <si>
+    <t>2011-04-06</t>
+  </si>
+  <si>
     <t>2011-04-07</t>
   </si>
   <si>
     <t>2011-04-08</t>
   </si>
   <si>
-    <t>2011-04-09</t>
-  </si>
-  <si>
     <t>2011-04-10</t>
   </si>
   <si>
@@ -373,6 +373,9 @@
     <t>2011-05-01</t>
   </si>
   <si>
+    <t>2011-05-03</t>
+  </si>
+  <si>
     <t>2011-05-04</t>
   </si>
   <si>
@@ -382,9 +385,6 @@
     <t>2011-05-06</t>
   </si>
   <si>
-    <t>2011-05-07</t>
-  </si>
-  <si>
     <t>2011-05-08</t>
   </si>
   <si>
@@ -394,6 +394,9 @@
     <t>2011-05-10</t>
   </si>
   <si>
+    <t>2011-05-11</t>
+  </si>
+  <si>
     <t>2011-05-12</t>
   </si>
   <si>
@@ -451,9 +454,6 @@
     <t>2011-06-03</t>
   </si>
   <si>
-    <t>2011-06-04</t>
-  </si>
-  <si>
     <t>2011-06-05</t>
   </si>
   <si>
@@ -463,15 +463,15 @@
     <t>2011-06-07</t>
   </si>
   <si>
+    <t>2011-06-08</t>
+  </si>
+  <si>
     <t>2011-06-09</t>
   </si>
   <si>
     <t>2011-06-10</t>
   </si>
   <si>
-    <t>2011-06-11</t>
-  </si>
-  <si>
     <t>2011-06-12</t>
   </si>
   <si>
@@ -526,15 +526,15 @@
     <t>2011-07-01</t>
   </si>
   <si>
-    <t>2011-07-02</t>
-  </si>
-  <si>
     <t>2011-07-03</t>
   </si>
   <si>
     <t>2011-07-04</t>
   </si>
   <si>
+    <t>2011-07-05</t>
+  </si>
+  <si>
     <t>2011-07-06</t>
   </si>
   <si>
@@ -544,9 +544,6 @@
     <t>2011-07-08</t>
   </si>
   <si>
-    <t>2011-07-09</t>
-  </si>
-  <si>
     <t>2011-07-10</t>
   </si>
   <si>
@@ -604,6 +601,9 @@
     <t>2011-07-31</t>
   </si>
   <si>
+    <t>2011-08-01</t>
+  </si>
+  <si>
     <t>2011-08-02</t>
   </si>
   <si>
@@ -616,9 +616,6 @@
     <t>2011-08-05</t>
   </si>
   <si>
-    <t>2011-08-06</t>
-  </si>
-  <si>
     <t>2011-08-07</t>
   </si>
   <si>
@@ -628,6 +625,9 @@
     <t>2011-08-09</t>
   </si>
   <si>
+    <t>2011-08-10</t>
+  </si>
+  <si>
     <t>2011-08-11</t>
   </si>
   <si>
@@ -685,7 +685,7 @@
     <t>2011-09-02</t>
   </si>
   <si>
-    <t>2011-09-03</t>
+    <t>2011-09-04</t>
   </si>
   <si>
     <t>2011-09-05</t>
@@ -694,15 +694,15 @@
     <t>2011-09-06</t>
   </si>
   <si>
+    <t>2011-09-07</t>
+  </si>
+  <si>
     <t>2011-09-08</t>
   </si>
   <si>
     <t>2011-09-09</t>
   </si>
   <si>
-    <t>2011-09-10</t>
-  </si>
-  <si>
     <t>2011-09-11</t>
   </si>
   <si>
@@ -757,9 +757,6 @@
     <t>2011-09-30</t>
   </si>
   <si>
-    <t>2011-10-01</t>
-  </si>
-  <si>
     <t>2011-10-02</t>
   </si>
   <si>
@@ -778,7 +775,7 @@
     <t>2011-10-07</t>
   </si>
   <si>
-    <t>2011-10-08</t>
+    <t>2011-10-09</t>
   </si>
   <si>
     <t>2011-10-10</t>
@@ -787,6 +784,9 @@
     <t>2011-10-11</t>
   </si>
   <si>
+    <t>2011-10-12</t>
+  </si>
+  <si>
     <t>2011-10-13</t>
   </si>
   <si>
@@ -847,7 +847,7 @@
     <t>2011-11-04</t>
   </si>
   <si>
-    <t>2011-11-05</t>
+    <t>2011-11-06</t>
   </si>
   <si>
     <t>2011-11-07</t>
@@ -916,6 +916,9 @@
     <t>2011-12-01</t>
   </si>
   <si>
+    <t>2011-12-02</t>
+  </si>
+  <si>
     <t>2011-12-04</t>
   </si>
   <si>
@@ -932,9 +935,6 @@
   </si>
   <si>
     <t>2011-12-09</t>
-  </si>
-  <si>
-    <t>2011-12-10</t>
   </si>
 </sst>
 </file>
@@ -1471,7 +1471,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>3954.279999999999</v>
+        <v>2558.259999999999</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1479,7 +1479,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>5563.49</v>
+        <v>3514.44</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1487,7 +1487,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>3869.329999999999</v>
+        <v>5191.259999999998</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1495,7 +1495,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>1291.71</v>
+        <v>3149.189999999999</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1503,7 +1503,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>2248.439999999999</v>
+        <v>3426.819999999999</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1511,7 +1511,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>2322.77</v>
+        <v>3172.26</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1519,7 +1519,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>3452.480000000002</v>
+        <v>2597.079999999998</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1527,7 +1527,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>3525.450000000001</v>
+        <v>3643.989999999999</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1535,7 +1535,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>5170.52</v>
+        <v>2573.419999999999</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1543,7 +1543,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>6510.169999999997</v>
+        <v>2327.909999999998</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1551,7 +1551,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>2573.419999999999</v>
+        <v>1716.8</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1559,7 +1559,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>2327.909999999998</v>
+        <v>3024.76</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1567,7 +1567,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>1716.8</v>
+        <v>1707.27</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1575,7 +1575,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>3024.76</v>
+        <v>2560.71</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1583,7 +1583,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>1707.27</v>
+        <v>2053.42</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1591,7 +1591,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>2560.71</v>
+        <v>2579.829999999999</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1599,7 +1599,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>2053.42</v>
+        <v>2560.759999999999</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1607,7 +1607,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>2579.829999999999</v>
+        <v>2559.03</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1615,7 +1615,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>2560.759999999999</v>
+        <v>4028.609999999998</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1623,7 +1623,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>2559.03</v>
+        <v>3397.23</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1631,7 +1631,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>4028.609999999998</v>
+        <v>6382.039999999998</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1639,7 +1639,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>3397.23</v>
+        <v>2466.219999999999</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1647,7 +1647,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>6382.039999999998</v>
+        <v>2283.33</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1655,7 +1655,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>2466.219999999999</v>
+        <v>2994.409999999998</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1663,7 +1663,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>2283.33</v>
+        <v>3954.279999999999</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1671,7 +1671,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>2994.409999999998</v>
+        <v>2987.37</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1679,7 +1679,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>2987.37</v>
+        <v>2927</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1687,7 +1687,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>3445.259999999998</v>
+        <v>2793.83</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1695,7 +1695,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>3596.499999999998</v>
+        <v>789.21</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1703,7 +1703,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>2776.42</v>
+        <v>3620.34</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1711,7 +1711,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>4534.77</v>
+        <v>1870.54</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1719,7 +1719,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>3634.259999999999</v>
+        <v>1409.84</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1727,7 +1727,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>4846.46</v>
+        <v>2900.07</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1735,7 +1735,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>5523.48</v>
+        <v>3469.67</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1855,7 +1855,7 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>2927</v>
+        <v>5563.49</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1863,7 +1863,7 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>3437.100000000001</v>
+        <v>3445.259999999998</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1871,7 +1871,7 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>1726.29</v>
+        <v>3437.100000000001</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1879,7 +1879,7 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>26403.39</v>
+        <v>2240.33</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1887,7 +1887,7 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>2182.570000000001</v>
+        <v>2810.589999999998</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1895,7 +1895,7 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>1741.25</v>
+        <v>4665.399999999995</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1903,7 +1903,7 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>4011.159999999999</v>
+        <v>3328.059999999999</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1911,7 +1911,7 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>10159.02</v>
+        <v>3569.91</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1919,7 +1919,7 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>5959.25</v>
+        <v>2715.73</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1927,7 +1927,7 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>1352.43</v>
+        <v>8996.839999999998</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1935,7 +1935,7 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>3787.369999999999</v>
+        <v>1352.43</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1943,7 +1943,7 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>2442.489999999999</v>
+        <v>3787.369999999999</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1951,7 +1951,7 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>3086.81</v>
+        <v>2442.489999999999</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1959,7 +1959,7 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>3155.019999999999</v>
+        <v>3086.81</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1967,7 +1967,7 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>3069.349999999999</v>
+        <v>3155.019999999999</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1975,7 +1975,7 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>3604.650000000001</v>
+        <v>3069.349999999999</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1983,7 +1983,7 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>2828.44</v>
+        <v>3604.650000000001</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1991,7 +1991,7 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>3347.27</v>
+        <v>2828.44</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1999,7 +1999,7 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>3007.670000000001</v>
+        <v>3347.27</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -2007,7 +2007,7 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>4520.219999999998</v>
+        <v>3007.670000000001</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -2015,7 +2015,7 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>3387.5</v>
+        <v>4520.219999999998</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -2023,7 +2023,7 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>2148.869999999999</v>
+        <v>3387.5</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -2031,7 +2031,7 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>4073.410000000001</v>
+        <v>2148.869999999999</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -2039,7 +2039,7 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>2981.969999999999</v>
+        <v>4073.410000000001</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -2047,7 +2047,7 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>3586.159999999998</v>
+        <v>2981.969999999999</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -2055,7 +2055,7 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>4318.689999999997</v>
+        <v>3586.159999999998</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -2063,7 +2063,7 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>2558.259999999999</v>
+        <v>4318.689999999997</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -2071,7 +2071,7 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>2793.83</v>
+        <v>3869.329999999999</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -2079,7 +2079,7 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>2240.33</v>
+        <v>1726.29</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -2095,7 +2095,7 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>3570.07</v>
+        <v>5226.549999999999</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -2103,7 +2103,7 @@
         <v>101</v>
       </c>
       <c r="B101">
-        <v>3280.93</v>
+        <v>2420.56</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -2111,7 +2111,7 @@
         <v>102</v>
       </c>
       <c r="B102">
-        <v>4554.639999999999</v>
+        <v>3592.539999999999</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -2119,7 +2119,7 @@
         <v>103</v>
       </c>
       <c r="B103">
-        <v>3539.690000000001</v>
+        <v>7228.01</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -2127,7 +2127,7 @@
         <v>104</v>
       </c>
       <c r="B104">
-        <v>5820.989999999997</v>
+        <v>3096.279999999999</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -2135,7 +2135,7 @@
         <v>105</v>
       </c>
       <c r="B105">
-        <v>6428.27</v>
+        <v>3173.520000000001</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -2143,7 +2143,7 @@
         <v>106</v>
       </c>
       <c r="B106">
-        <v>5033.78</v>
+        <v>3568.919999999998</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -2239,7 +2239,7 @@
         <v>118</v>
       </c>
       <c r="B118">
-        <v>3514.44</v>
+        <v>1291.71</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -2247,7 +2247,7 @@
         <v>119</v>
       </c>
       <c r="B119">
-        <v>5226.549999999999</v>
+        <v>26403.39</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2255,7 +2255,7 @@
         <v>120</v>
       </c>
       <c r="B120">
-        <v>3829.650000000001</v>
+        <v>3570.07</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2263,7 +2263,7 @@
         <v>121</v>
       </c>
       <c r="B121">
-        <v>4798.209999999999</v>
+        <v>3829.650000000001</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2271,7 +2271,7 @@
         <v>122</v>
       </c>
       <c r="B122">
-        <v>2859.609999999999</v>
+        <v>3903.610000000001</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2279,7 +2279,7 @@
         <v>123</v>
       </c>
       <c r="B123">
-        <v>3586.359999999999</v>
+        <v>4212.249999999999</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2287,7 +2287,7 @@
         <v>124</v>
       </c>
       <c r="B124">
-        <v>3753.169999999999</v>
+        <v>3071.119999999999</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2295,7 +2295,7 @@
         <v>125</v>
       </c>
       <c r="B125">
-        <v>6388.059999999998</v>
+        <v>5245.779999999998</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2303,7 +2303,7 @@
         <v>126</v>
       </c>
       <c r="B126">
-        <v>11806.52000000001</v>
+        <v>4888.950000000002</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -2311,7 +2311,7 @@
         <v>127</v>
       </c>
       <c r="B127">
-        <v>3599.27</v>
+        <v>7524.599999999999</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2319,7 +2319,7 @@
         <v>128</v>
       </c>
       <c r="B128">
-        <v>2134.66</v>
+        <v>3599.27</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2327,7 +2327,7 @@
         <v>129</v>
       </c>
       <c r="B129">
-        <v>4000.109999999999</v>
+        <v>2134.66</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2335,7 +2335,7 @@
         <v>130</v>
       </c>
       <c r="B130">
-        <v>4885.369999999999</v>
+        <v>4000.109999999999</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2343,7 +2343,7 @@
         <v>131</v>
       </c>
       <c r="B131">
-        <v>4305.88</v>
+        <v>4885.369999999999</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -2351,7 +2351,7 @@
         <v>132</v>
       </c>
       <c r="B132">
-        <v>5263.889999999996</v>
+        <v>4305.88</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2359,7 +2359,7 @@
         <v>133</v>
       </c>
       <c r="B133">
-        <v>3191.569999999999</v>
+        <v>5263.889999999996</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2367,7 +2367,7 @@
         <v>134</v>
       </c>
       <c r="B134">
-        <v>4557.85</v>
+        <v>3191.569999999999</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2375,7 +2375,7 @@
         <v>135</v>
       </c>
       <c r="B135">
-        <v>10573.22000000001</v>
+        <v>4557.85</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2383,7 +2383,7 @@
         <v>136</v>
       </c>
       <c r="B136">
-        <v>4005.069999999997</v>
+        <v>10573.22000000001</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2391,7 +2391,7 @@
         <v>137</v>
       </c>
       <c r="B137">
-        <v>3102.33</v>
+        <v>4005.069999999997</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2399,7 +2399,7 @@
         <v>138</v>
       </c>
       <c r="B138">
-        <v>3782.719999999999</v>
+        <v>3102.33</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2407,7 +2407,7 @@
         <v>139</v>
       </c>
       <c r="B139">
-        <v>2915.079999999999</v>
+        <v>3782.719999999999</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2415,7 +2415,7 @@
         <v>140</v>
       </c>
       <c r="B140">
-        <v>1676.03</v>
+        <v>2915.079999999999</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2423,7 +2423,7 @@
         <v>141</v>
       </c>
       <c r="B141">
-        <v>2973.19</v>
+        <v>1676.03</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2431,7 +2431,7 @@
         <v>142</v>
       </c>
       <c r="B142">
-        <v>5191.259999999998</v>
+        <v>2973.19</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2439,7 +2439,7 @@
         <v>143</v>
       </c>
       <c r="B143">
-        <v>789.21</v>
+        <v>2248.439999999999</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2447,7 +2447,7 @@
         <v>144</v>
       </c>
       <c r="B144">
-        <v>2810.589999999998</v>
+        <v>3596.499999999998</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2455,7 +2455,7 @@
         <v>145</v>
       </c>
       <c r="B145">
-        <v>2420.56</v>
+        <v>2182.570000000001</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2463,7 +2463,7 @@
         <v>146</v>
       </c>
       <c r="B146">
-        <v>3903.610000000001</v>
+        <v>4798.209999999999</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -2479,7 +2479,7 @@
         <v>148</v>
       </c>
       <c r="B148">
-        <v>3044.829999999999</v>
+        <v>4201.339999999999</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2487,7 +2487,7 @@
         <v>149</v>
       </c>
       <c r="B149">
-        <v>3018.459999999999</v>
+        <v>4558.299999999998</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2495,7 +2495,7 @@
         <v>150</v>
       </c>
       <c r="B150">
-        <v>8362.499999999995</v>
+        <v>5373.380000000001</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -2503,7 +2503,7 @@
         <v>151</v>
       </c>
       <c r="B151">
-        <v>9259.769999999995</v>
+        <v>42469.44</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2511,7 +2511,7 @@
         <v>152</v>
       </c>
       <c r="B152">
-        <v>6350.979999999996</v>
+        <v>2982.579999999999</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -2647,7 +2647,7 @@
         <v>169</v>
       </c>
       <c r="B169">
-        <v>3149.189999999999</v>
+        <v>2322.77</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -2655,7 +2655,7 @@
         <v>170</v>
       </c>
       <c r="B170">
-        <v>3620.34</v>
+        <v>1741.25</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -2663,7 +2663,7 @@
         <v>171</v>
       </c>
       <c r="B171">
-        <v>4665.399999999995</v>
+        <v>3280.93</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -2671,7 +2671,7 @@
         <v>172</v>
       </c>
       <c r="B172">
-        <v>3592.539999999999</v>
+        <v>2859.609999999999</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -2679,7 +2679,7 @@
         <v>173</v>
       </c>
       <c r="B173">
-        <v>4201.339999999999</v>
+        <v>3044.829999999999</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -2695,7 +2695,7 @@
         <v>175</v>
       </c>
       <c r="B175">
-        <v>1277.12</v>
+        <v>2632.070000000001</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -2703,7 +2703,7 @@
         <v>176</v>
       </c>
       <c r="B176">
-        <v>2773.83</v>
+        <v>1954.21</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -2711,7 +2711,7 @@
         <v>177</v>
       </c>
       <c r="B177">
-        <v>5450.129999999997</v>
+        <v>2896.270000000001</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -2719,7 +2719,7 @@
         <v>178</v>
       </c>
       <c r="B178">
-        <v>5467.859999999995</v>
+        <v>2221.75</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -2727,7 +2727,7 @@
         <v>179</v>
       </c>
       <c r="B179">
-        <v>5714.219999999998</v>
+        <v>3126.980000000002</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -2735,7 +2735,7 @@
         <v>180</v>
       </c>
       <c r="B180">
-        <v>3126.980000000002</v>
+        <v>4442.250000000001</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -2743,7 +2743,7 @@
         <v>181</v>
       </c>
       <c r="B181">
-        <v>4442.250000000001</v>
+        <v>2865.439999999999</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -2751,7 +2751,7 @@
         <v>182</v>
       </c>
       <c r="B182">
-        <v>2865.439999999999</v>
+        <v>3201.23</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -2759,7 +2759,7 @@
         <v>183</v>
       </c>
       <c r="B183">
-        <v>3201.23</v>
+        <v>13577.48</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -2767,7 +2767,7 @@
         <v>184</v>
       </c>
       <c r="B184">
-        <v>13577.48</v>
+        <v>4764.92</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -2775,7 +2775,7 @@
         <v>185</v>
       </c>
       <c r="B185">
-        <v>4764.92</v>
+        <v>7403.489999999999</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -2783,7 +2783,7 @@
         <v>186</v>
       </c>
       <c r="B186">
-        <v>7403.489999999999</v>
+        <v>4048.170000000001</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -2791,7 +2791,7 @@
         <v>187</v>
       </c>
       <c r="B187">
-        <v>4048.170000000001</v>
+        <v>2076.930000000001</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -2799,7 +2799,7 @@
         <v>188</v>
       </c>
       <c r="B188">
-        <v>2076.930000000001</v>
+        <v>2987.970000000001</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -2807,7 +2807,7 @@
         <v>189</v>
       </c>
       <c r="B189">
-        <v>2987.970000000001</v>
+        <v>3010.03</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -2815,7 +2815,7 @@
         <v>190</v>
       </c>
       <c r="B190">
-        <v>3010.03</v>
+        <v>2263.880999999999</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -2823,7 +2823,7 @@
         <v>191</v>
       </c>
       <c r="B191">
-        <v>2263.880999999999</v>
+        <v>2188.91</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -2831,7 +2831,7 @@
         <v>192</v>
       </c>
       <c r="B192">
-        <v>2188.91</v>
+        <v>3887.699999999997</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -2839,7 +2839,7 @@
         <v>193</v>
       </c>
       <c r="B193">
-        <v>3887.699999999997</v>
+        <v>2692.409999999999</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -2847,7 +2847,7 @@
         <v>194</v>
       </c>
       <c r="B194">
-        <v>2692.409999999999</v>
+        <v>3071.349999999999</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -2855,7 +2855,7 @@
         <v>195</v>
       </c>
       <c r="B195">
-        <v>3071.349999999999</v>
+        <v>3452.480000000002</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -2863,7 +2863,7 @@
         <v>196</v>
       </c>
       <c r="B196">
-        <v>1870.54</v>
+        <v>2776.42</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -2871,7 +2871,7 @@
         <v>197</v>
       </c>
       <c r="B197">
-        <v>3328.059999999999</v>
+        <v>4011.159999999999</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -2879,7 +2879,7 @@
         <v>198</v>
       </c>
       <c r="B198">
-        <v>7228.01</v>
+        <v>4554.639999999999</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -2887,7 +2887,7 @@
         <v>199</v>
       </c>
       <c r="B199">
-        <v>4212.249999999999</v>
+        <v>3586.359999999999</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -2895,7 +2895,7 @@
         <v>200</v>
       </c>
       <c r="B200">
-        <v>4558.299999999998</v>
+        <v>1277.12</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -2903,7 +2903,7 @@
         <v>201</v>
       </c>
       <c r="B201">
-        <v>2632.070000000001</v>
+        <v>6336.9</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -2911,7 +2911,7 @@
         <v>202</v>
       </c>
       <c r="B202">
-        <v>6336.9</v>
+        <v>3269.78</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -2919,7 +2919,7 @@
         <v>203</v>
       </c>
       <c r="B203">
-        <v>3803.75</v>
+        <v>3205.38</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -2927,7 +2927,7 @@
         <v>204</v>
       </c>
       <c r="B204">
-        <v>6746.659999999998</v>
+        <v>6471.75</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -2935,7 +2935,7 @@
         <v>205</v>
       </c>
       <c r="B205">
-        <v>6773.809999999997</v>
+        <v>2078.509999999999</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -3063,7 +3063,7 @@
         <v>221</v>
       </c>
       <c r="B221">
-        <v>3426.819999999999</v>
+        <v>3525.450000000001</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -3071,7 +3071,7 @@
         <v>222</v>
       </c>
       <c r="B222">
-        <v>1409.84</v>
+        <v>4534.77</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -3079,7 +3079,7 @@
         <v>223</v>
       </c>
       <c r="B223">
-        <v>3569.91</v>
+        <v>3539.690000000001</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -3087,7 +3087,7 @@
         <v>224</v>
       </c>
       <c r="B224">
-        <v>3071.119999999999</v>
+        <v>3753.169999999999</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -3095,7 +3095,7 @@
         <v>225</v>
       </c>
       <c r="B225">
-        <v>5373.380000000001</v>
+        <v>3018.459999999999</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -3103,7 +3103,7 @@
         <v>226</v>
       </c>
       <c r="B226">
-        <v>3269.78</v>
+        <v>2773.83</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -3111,7 +3111,7 @@
         <v>227</v>
       </c>
       <c r="B227">
-        <v>4211.93</v>
+        <v>3803.75</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -3119,7 +3119,7 @@
         <v>228</v>
       </c>
       <c r="B228">
-        <v>3262</v>
+        <v>4211.93</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -3127,7 +3127,7 @@
         <v>229</v>
       </c>
       <c r="B229">
-        <v>6033.120000000002</v>
+        <v>5740.41</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -3135,7 +3135,7 @@
         <v>230</v>
       </c>
       <c r="B230">
-        <v>1769.1</v>
+        <v>4239.699999999998</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -3271,7 +3271,7 @@
         <v>247</v>
       </c>
       <c r="B247">
-        <v>3172.26</v>
+        <v>3634.259999999999</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -3279,7 +3279,7 @@
         <v>248</v>
       </c>
       <c r="B248">
-        <v>2900.07</v>
+        <v>10159.02</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -3287,7 +3287,7 @@
         <v>249</v>
       </c>
       <c r="B249">
-        <v>2715.73</v>
+        <v>5820.989999999997</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -3295,7 +3295,7 @@
         <v>250</v>
       </c>
       <c r="B250">
-        <v>3096.279999999999</v>
+        <v>6388.059999999998</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -3303,7 +3303,7 @@
         <v>251</v>
       </c>
       <c r="B251">
-        <v>5245.779999999998</v>
+        <v>8362.499999999995</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -3311,7 +3311,7 @@
         <v>252</v>
       </c>
       <c r="B252">
-        <v>42469.44</v>
+        <v>5450.129999999997</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -3319,7 +3319,7 @@
         <v>253</v>
       </c>
       <c r="B253">
-        <v>1954.21</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -3327,7 +3327,7 @@
         <v>254</v>
       </c>
       <c r="B254">
-        <v>3205.38</v>
+        <v>9660.760000000004</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -3335,7 +3335,7 @@
         <v>255</v>
       </c>
       <c r="B255">
-        <v>9660.760000000004</v>
+        <v>5377.55</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -3343,7 +3343,7 @@
         <v>256</v>
       </c>
       <c r="B256">
-        <v>13042.39</v>
+        <v>4795.660000000003</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -3479,7 +3479,7 @@
         <v>273</v>
       </c>
       <c r="B273">
-        <v>2597.079999999998</v>
+        <v>5170.52</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -3487,7 +3487,7 @@
         <v>274</v>
       </c>
       <c r="B274">
-        <v>3469.67</v>
+        <v>4846.46</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -3495,7 +3495,7 @@
         <v>275</v>
       </c>
       <c r="B275">
-        <v>8996.839999999998</v>
+        <v>5959.25</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -3503,7 +3503,7 @@
         <v>276</v>
       </c>
       <c r="B276">
-        <v>3173.520000000001</v>
+        <v>6428.27</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -3511,7 +3511,7 @@
         <v>277</v>
       </c>
       <c r="B277">
-        <v>4888.950000000002</v>
+        <v>9259.769999999995</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -3519,7 +3519,7 @@
         <v>278</v>
       </c>
       <c r="B278">
-        <v>2896.270000000001</v>
+        <v>5467.859999999995</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -3527,7 +3527,7 @@
         <v>279</v>
       </c>
       <c r="B279">
-        <v>6471.75</v>
+        <v>6746.659999999998</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -3535,7 +3535,7 @@
         <v>280</v>
       </c>
       <c r="B280">
-        <v>5740.41</v>
+        <v>6033.120000000002</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -3543,7 +3543,7 @@
         <v>281</v>
       </c>
       <c r="B281">
-        <v>5377.55</v>
+        <v>13042.39</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -3687,7 +3687,7 @@
         <v>299</v>
       </c>
       <c r="B299">
-        <v>3643.989999999999</v>
+        <v>6510.169999999997</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -3695,7 +3695,7 @@
         <v>300</v>
       </c>
       <c r="B300">
-        <v>3568.919999999998</v>
+        <v>5523.48</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -3703,7 +3703,7 @@
         <v>301</v>
       </c>
       <c r="B301">
-        <v>7524.599999999999</v>
+        <v>5033.78</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -3711,7 +3711,7 @@
         <v>302</v>
       </c>
       <c r="B302">
-        <v>2982.579999999999</v>
+        <v>11806.52000000001</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -3719,7 +3719,7 @@
         <v>303</v>
       </c>
       <c r="B303">
-        <v>2221.75</v>
+        <v>6350.979999999996</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -3727,7 +3727,7 @@
         <v>304</v>
       </c>
       <c r="B304">
-        <v>2078.509999999999</v>
+        <v>5714.219999999998</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -3735,7 +3735,7 @@
         <v>305</v>
       </c>
       <c r="B305">
-        <v>4239.699999999998</v>
+        <v>6773.809999999997</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -3743,7 +3743,7 @@
         <v>306</v>
       </c>
       <c r="B306">
-        <v>4795.660000000003</v>
+        <v>1769.1</v>
       </c>
     </row>
   </sheetData>

--- a/ARIMA.xlsx
+++ b/ARIMA.xlsx
@@ -543,7 +543,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7773.756911164408</v>
+        <v>6463.126477944515</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -554,7 +554,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6935.214131155447</v>
+        <v>6210.092184908121</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -565,7 +565,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6947.089438477436</v>
+        <v>5595.715812656294</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
@@ -576,7 +576,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7125.271886065957</v>
+        <v>6001.240884591827</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -587,7 +587,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7105.786178194521</v>
+        <v>5977.480587082205</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -598,7 +598,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7117.991253294334</v>
+        <v>5917.8275776542</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
@@ -609,7 +609,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7132.89441010585</v>
+        <v>5955.595270620216</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
@@ -620,7 +620,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7141.776310067607</v>
+        <v>5956.524057161001</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
@@ -631,7 +631,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7151.929633437468</v>
+        <v>5953.330611272828</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
@@ -642,7 +642,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7162.03305015795</v>
+        <v>5959.275277155734</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
@@ -653,7 +653,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7171.956169620737</v>
+        <v>5962.038509870753</v>
       </c>
       <c r="C12" t="s">
         <v>11</v>
@@ -664,7 +664,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7182.075830747564</v>
+        <v>5964.263429645162</v>
       </c>
       <c r="C13" t="s">
         <v>12</v>
@@ -675,7 +675,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7191.964849056966</v>
+        <v>5967.416752908925</v>
       </c>
       <c r="C14" t="s">
         <v>13</v>
@@ -686,7 +686,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7201.920679375305</v>
+        <v>5970.24004864436</v>
       </c>
       <c r="C15" t="s">
         <v>14</v>
@@ -697,7 +697,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7211.876814160098</v>
+        <v>5973.030490949578</v>
       </c>
       <c r="C16" t="s">
         <v>15</v>
@@ -708,7 +708,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7221.908231605335</v>
+        <v>5975.893423768457</v>
       </c>
       <c r="C17" t="s">
         <v>16</v>
@@ -719,7 +719,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7231.846618806205</v>
+        <v>5978.744475282662</v>
       </c>
       <c r="C18" t="s">
         <v>17</v>
@@ -730,7 +730,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7241.855120563511</v>
+        <v>5981.557754870121</v>
       </c>
       <c r="C19" t="s">
         <v>18</v>
@@ -741,7 +741,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7251.812252742124</v>
+        <v>5984.415685725774</v>
       </c>
       <c r="C20" t="s">
         <v>19</v>
@@ -752,7 +752,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7261.683190702741</v>
+        <v>5987.277446845091</v>
       </c>
       <c r="C21" t="s">
         <v>20</v>
@@ -763,7 +763,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7271.728710764923</v>
+        <v>5990.098365724652</v>
       </c>
       <c r="C22" t="s">
         <v>21</v>
@@ -774,7 +774,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7281.617459087259</v>
+        <v>5992.939978808831</v>
       </c>
       <c r="C23" t="s">
         <v>22</v>
@@ -785,7 +785,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7291.648566555148</v>
+        <v>5995.786951373824</v>
       </c>
       <c r="C24" t="s">
         <v>23</v>
@@ -796,7 +796,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7301.667767591857</v>
+        <v>5998.607713423421</v>
       </c>
       <c r="C25" t="s">
         <v>24</v>
@@ -807,7 +807,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>7311.660407072411</v>
+        <v>6001.438583958419</v>
       </c>
       <c r="C26" t="s">
         <v>25</v>
@@ -818,7 +818,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>7321.491166148112</v>
+        <v>6004.291204725444</v>
       </c>
       <c r="C27" t="s">
         <v>26</v>
@@ -829,7 +829,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>7331.535809540945</v>
+        <v>6007.137380491866</v>
       </c>
       <c r="C28" t="s">
         <v>27</v>
@@ -840,7 +840,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>7341.437199685875</v>
+        <v>6009.985138000494</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -851,7 +851,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>7351.358848404871</v>
+        <v>6012.815654823854</v>
       </c>
       <c r="C30" t="s">
         <v>29</v>
@@ -862,7 +862,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>7361.385444267611</v>
+        <v>6015.660273211714</v>
       </c>
       <c r="C31" t="s">
         <v>30</v>
@@ -873,7 +873,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>7371.314306037206</v>
+        <v>6018.523689495754</v>
       </c>
       <c r="C32" t="s">
         <v>31</v>
@@ -884,7 +884,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>7381.298205018658</v>
+        <v>6021.352820335479</v>
       </c>
       <c r="C33" t="s">
         <v>32</v>
@@ -895,7 +895,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>7391.268638207153</v>
+        <v>6024.191456730577</v>
       </c>
       <c r="C34" t="s">
         <v>33</v>
@@ -906,7 +906,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>7401.254046369117</v>
+        <v>6027.035528838966</v>
       </c>
       <c r="C35" t="s">
         <v>34</v>
@@ -917,7 +917,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>7411.230302883897</v>
+        <v>6029.891572108347</v>
       </c>
       <c r="C36" t="s">
         <v>35</v>
@@ -928,7 +928,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>7421.279416189926</v>
+        <v>6032.694327349423</v>
       </c>
       <c r="C37" t="s">
         <v>36</v>
@@ -939,7 +939,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>7431.070940331704</v>
+        <v>6035.540068501564</v>
       </c>
       <c r="C38" t="s">
         <v>37</v>
@@ -950,7 +950,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>7441.126556426369</v>
+        <v>6038.398551558446</v>
       </c>
       <c r="C39" t="s">
         <v>38</v>
@@ -961,7 +961,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>7451.04145126096</v>
+        <v>6041.246077367976</v>
       </c>
       <c r="C40" t="s">
         <v>39</v>
@@ -972,7 +972,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>7460.999886633148</v>
+        <v>6044.075253856833</v>
       </c>
       <c r="C41" t="s">
         <v>40</v>
@@ -983,7 +983,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>7471.023948775573</v>
+        <v>6046.902824004618</v>
       </c>
       <c r="C42" t="s">
         <v>41</v>
@@ -994,7 +994,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>7480.997126850476</v>
+        <v>6049.754636981018</v>
       </c>
       <c r="C43" t="s">
         <v>42</v>
@@ -1005,7 +1005,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>7490.937188137705</v>
+        <v>6052.594784407926</v>
       </c>
       <c r="C44" t="s">
         <v>43</v>
@@ -1016,7 +1016,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>7500.929373767572</v>
+        <v>6055.428289602378</v>
       </c>
       <c r="C45" t="s">
         <v>44</v>
@@ -1027,7 +1027,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>7510.847061579392</v>
+        <v>6058.284838505804</v>
       </c>
       <c r="C46" t="s">
         <v>45</v>
@@ -1038,7 +1038,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>7520.844115363747</v>
+        <v>6061.124427089228</v>
       </c>
       <c r="C47" t="s">
         <v>46</v>
@@ -1049,7 +1049,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>7530.844771323853</v>
+        <v>6063.944244618605</v>
       </c>
       <c r="C48" t="s">
         <v>47</v>
@@ -1060,7 +1060,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>7540.839227545862</v>
+        <v>6066.773883041963</v>
       </c>
       <c r="C49" t="s">
         <v>48</v>
@@ -1071,7 +1071,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>7550.712070904703</v>
+        <v>6069.603489061516</v>
       </c>
       <c r="C50" t="s">
         <v>49</v>
@@ -1082,7 +1082,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>7560.735350555023</v>
+        <v>6072.462519465052</v>
       </c>
       <c r="C51" t="s">
         <v>50</v>
